--- a/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample04-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample04-from-config-file.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Stacked area chart" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart And Secondary Axis" sheetId="1" r:id="rId1"/>
     <sheet name="PivotSimple" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Stacked area chart'!$A$1:$F$1</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Stacked area chart'!$A$1:$F$7</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Stacked area chart'!$1:$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Chart And Secondary Axis'!$A$1:$F$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Chart And Secondary Axis'!$A$1:$F$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'Chart And Secondary Axis'!$1:$1</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
   <pivotCaches>
@@ -64,10 +64,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="##0.0;[Black]\-##0.0"/>
-    <numFmt numFmtId="165" formatCode="##0;[Black]\-##0"/>
+    <numFmt numFmtId="164" formatCode="##0;[Black]\-##0"/>
+    <numFmt numFmtId="165" formatCode="##0.00;[Black]\-##0.00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -79,12 +79,17 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF" tint="0"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000" tint="0"/>
-      <name val="Segoe UI"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,13 +104,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD7EEF7" tint="0"/>
+        <fgColor rgb="FFED7D31" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB6DDE9" tint="0"/>
+        <fgColor rgb="FFF8CBAD" tint="0"/>
+        <bgColor rgb="FFFFFF" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCE4D6" tint="0"/>
         <bgColor rgb="FFFFFF" tint="0"/>
       </patternFill>
     </fill>
@@ -119,128 +130,120 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFFFFFFF" tint="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF" tint="0"/>
+      </right>
       <top style="thin">
-        <color rgb="FF000000" tint="0"/>
+        <color rgb="FFFFFFFF" tint="0"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF" tint="0"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="4">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="2" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="2" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="2" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="3" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="3" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="6" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="4" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="5" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="6" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="2" applyFont="1" fillId="3" applyFill="1" borderId="1" applyBorder="1" xfId="7" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="8" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="7" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="49" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="9" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="8" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="3" applyFill="1" xfId="9" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" xfId="13" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="14" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="1" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="15" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="10" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="14">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="_Default_" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
     <cellStyle name="HeaderStyle_Alternate" xfId="3"/>
-    <cellStyle name="AggregateStyle" xfId="4"/>
-    <cellStyle name="AggregateStyle_Alternate" xfId="5"/>
-    <cellStyle name="ValueTextStyle" xfId="6"/>
-    <cellStyle name="ValueTextStyle_Alternate" xfId="7"/>
-    <cellStyle name="NumericStandardStyle" xfId="8"/>
-    <cellStyle name="NumericStandardStyle_Alternate" xfId="9"/>
-    <cellStyle name="NumericStandardWithBorderStyle" xfId="10"/>
-    <cellStyle name="NumericStandardWithBorderStyle_Alternate" xfId="11"/>
-    <cellStyle name="NumericWithoutDecimalsStyle" xfId="12"/>
-    <cellStyle name="NumericWithoutDecimalsStyle_Alternate" xfId="13"/>
-    <cellStyle name="NumericWithoutDecimalsWithBorderStyle" xfId="14"/>
-    <cellStyle name="NumericWithoutDecimalsWithBorderStyle_Alternate" xfId="15"/>
+    <cellStyle name="AggregateNumericStyle" xfId="4"/>
+    <cellStyle name="AggregateNumericStyle_Alternate" xfId="5"/>
+    <cellStyle name="AggregateDecimalStyle" xfId="6"/>
+    <cellStyle name="AggregateDecimalStyle_Alternate" xfId="7"/>
+    <cellStyle name="TextStyle" xfId="8"/>
+    <cellStyle name="TextStyle_Alternate" xfId="9"/>
+    <cellStyle name="NumericStyle" xfId="10"/>
+    <cellStyle name="NumericStyle_Alternate" xfId="11"/>
+    <cellStyle name="DecimalStyle" xfId="12"/>
+    <cellStyle name="DecimalStyle_Alternate" xfId="13"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -282,17 +285,17 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Stacked area chart'!B2:B6</c:f>
+              <c:f>'Chart And Secondary Axis'!B2:B6</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stacked area chart'!F2:F6</c:f>
+              <c:f>'Chart And Secondary Axis'!F2:F6</c:f>
             </c:numRef>
           </c:val>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="285a8f"/>
+              <a:srgbClr val="ed7d31"/>
             </a:solidFill>
           </c:spPr>
         </ser>
@@ -305,12 +308,12 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Stacked area chart'!B2:B6</c:f>
+              <c:f>'Chart And Secondary Axis'!B2:B6</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stacked area chart'!D2:D6</c:f>
+              <c:f>'Chart And Secondary Axis'!D2:D6</c:f>
             </c:numRef>
           </c:val>
           <c:spPr>
@@ -337,12 +340,12 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Stacked area chart'!B2:B6</c:f>
+              <c:f>'Chart And Secondary Axis'!B2:B6</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stacked area chart'!C2:C6</c:f>
+              <c:f>'Chart And Secondary Axis'!C2:C6</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -553,25 +556,17 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
-      <c:spPr>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </c:spPr>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1200" b="1">
+            <a:defRPr sz="1000">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Segoe UI"/>
-              <a:cs typeface="Segoe UI"/>
+              <a:latin typeface="Calibri"/>
+              <a:cs typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
         </a:p>
@@ -656,13 +651,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -725,7 +720,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H501" sheet="Stacked area chart"/>
+    <worksheetSource ref="A1:H501" sheet="Chart And Secondary Axis"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="ID" numFmtId="0">
@@ -791,16 +786,16 @@
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="1"/>
+    <sheetView workbookViewId="0" showGridLines="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.11910847255162" customWidth="1"/>
-    <col min="2" max="2" width="10.8908718654088" customWidth="1"/>
-    <col min="3" max="3" width="16.6321280343192" customWidth="1"/>
-    <col min="4" max="4" width="16.9604394095285" customWidth="1"/>
-    <col min="5" max="5" width="8.14440645490374" customWidth="1"/>
-    <col min="6" max="6" width="8.85776192801339" customWidth="1"/>
+    <col min="1" max="1" width="6.88098199026925" customWidth="1"/>
+    <col min="2" max="2" width="10.7065026419503" customWidth="1"/>
+    <col min="3" max="3" width="16.2198017665318" customWidth="1"/>
+    <col min="4" max="4" width="16.7354267665318" customWidth="1"/>
+    <col min="5" max="5" width="8.09870910644531" customWidth="1"/>
+    <col min="6" max="6" width="8.69924817766462" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -824,102 +819,102 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8">
+      <c r="A2" s="10">
         <v>12001</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="10">
         <v>37</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="12">
         <v>1.2999999523162842</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="12">
         <v>3.9900000095367432</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="12">
         <v>2.690000057220459</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="9">
+      <c r="A3" s="11">
         <v>12002</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="11">
         <v>5</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="13">
         <v>5.3299999237060547</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="13">
         <v>12.100000381469727</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="13">
         <v>6.7699999809265137</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8">
+      <c r="A4" s="10">
         <v>12003</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="10">
         <v>12</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="12">
         <v>8.9899997711181641</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="12">
         <v>15.369999885559082</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="12">
         <v>6.380000114440918</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <v>12010</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="11">
         <v>20</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="13">
         <v>4.3000001907348633</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="13">
         <v>8</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="13">
         <v>3.7000000476837158</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8">
+      <c r="A6" s="10">
         <v>12011</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="10">
         <v>7</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="12">
         <v>13.770000457763672</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="12">
         <v>23.479999542236328</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="12">
         <v>9.7100000381469727</v>
       </c>
     </row>
@@ -927,19 +922,19 @@
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <f>SUBTOTAL(109,B2:B6)</f>
       </c>
       <c r="C7" s="4">
         <f>SUBTOTAL(109,C2:C6)</f>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <f>SUBTOTAL(109,D2:D6)</f>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <f>SUBTOTAL(109,E2:E6)</f>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <f>SUBTOTAL(109,F2:F6)</f>
       </c>
     </row>

--- a/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample04-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample04-from-config-file.xlsx
@@ -180,10 +180,10 @@
     <xf numFmtId="164" fontId="3" fillId="5" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1">
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -222,10 +222,10 @@
     <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="11" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="4" applyFill="1" borderId="1" applyBorder="1" xfId="12" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" applyNumberFormat="1" fontId="3" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="13" applyProtection="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -280,6 +280,29 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
+            <c:v>Purchase Price</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Chart And Secondary Axis'!B2:B6</c:f>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Chart And Secondary Axis'!D2:D6</c:f>
+            </c:numRef>
+          </c:val>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="336ea9"/>
+            </a:solidFill>
+          </c:spPr>
+        </ser>
+        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
             <c:v>Profit</c:v>
           </c:tx>
           <c:invertIfNegative val="0"/>
@@ -296,29 +319,6 @@
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="ed7d31"/>
-            </a:solidFill>
-          </c:spPr>
-        </ser>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Purchase Price</c:v>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Chart And Secondary Axis'!B2:B6</c:f>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Chart And Secondary Axis'!D2:D6</c:f>
-            </c:numRef>
-          </c:val>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="336ea9"/>
             </a:solidFill>
           </c:spPr>
         </ser>
@@ -340,7 +340,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Chart And Secondary Axis'!B2:B6</c:f>
+              <c:f>'Chart And Secondary Axis'!A2:A6</c:f>
             </c:numRef>
           </c:cat>
           <c:val>
@@ -478,7 +478,7 @@
         </c:title>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="low"/>
+        <c:tickLblPos val="high"/>
         <c:crossAx val="4"/>
         <c:txPr>
           <a:bodyPr rot="0" vert="horz"/>
@@ -504,6 +504,7 @@
         <c:axId val="4"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -524,7 +525,7 @@
         </c:title>
         <c:majorTickMark val="cross"/>
         <c:minorTickMark val="cross"/>
-        <c:tickLblPos val="low"/>
+        <c:tickLblPos val="high"/>
         <c:crossAx val="3"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>

--- a/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample04-from-config-file.xlsx
+++ b/source/samples/export/iTinExportEngineSamples/output/EPPlusSamples/sample04-from-config-file.xlsx
@@ -6,7 +6,6 @@
   </bookViews>
   <sheets>
     <sheet name="Chart And Secondary Axis" sheetId="1" r:id="rId1"/>
-    <sheet name="PivotSimple" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Chart And Secondary Axis'!$A$1:$F$1</definedName>
@@ -14,9 +13,6 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Chart And Secondary Axis'!$1:$1</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
-  <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId4"/>
-  </pivotCaches>
 </workbook>
 </file>
 
@@ -588,66 +584,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <pivotSource xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-    <c:name>[]PivotSimple!PerEmploee</c:name>
-    <c:fmtId val="0"/>
-  </pivotSource>
-  <c:chart>
-    <pivotFmts xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:marker>
-          <c:symbol val="none"/>
-        </c:marker>
-      </c:pivotFmt>
-    </pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <ser xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>
-              </c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>'PivotSimple'!$A$1</c:f>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'PivotSimple'!$B$1</c:f>
-              <c:numCache>General</c:numCache>
-            </c:numRef>
-          </c:val>
-        </ser>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -683,106 +619,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <graphicFrame xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="PivotChart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="SomeUser" refreshedDate="40504.582403125001" createdVersion="1" refreshedVersion="3" recordCount="5" upgradeOnRefresh="1">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H501" sheet="Chart And Secondary Axis"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="ID" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Product" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Items in Stock" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Purchase Price" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Price" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Profit" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Column7" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Column8" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="0"/>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PerEmploee" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Data" createdVersion="4" showMemberPropertyTips="0" useAutoFormatting="1" itemPrintTitles="1" indent="0" compact="0" compactData="0" gridDropZones="1">
-  <location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" axis="axisRow">
-      <items count="1">
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" dataField="1"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields>
-    <field x="3"/>
-  </rowFields>
-  <dataFields>
-    <dataField fld="5" numFmtId="3" name="Profit"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleMedium9" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F7"/>
@@ -946,16 +782,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <headerFooter/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>